--- a/Socioemocional/SWOT-LucasYudiGaneko.xlsx
+++ b/Socioemocional/SWOT-LucasYudiGaneko.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\bandtec2019\Socioemocional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DC58A52-407D-4A59-9A15-F088900250CD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB6D8F5-8F27-495F-A3C9-43DAE3D04672}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8D03547D-3173-4B8B-9874-662F605B90C2}"/>
+    <workbookView xWindow="2730" yWindow="2910" windowWidth="15375" windowHeight="7875" xr2:uid="{8D03547D-3173-4B8B-9874-662F605B90C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>INTERNO</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>Foco</t>
+  </si>
+  <si>
+    <t>Falar pouco em reuniões</t>
+  </si>
+  <si>
+    <t>Não conseguir fazer network</t>
   </si>
 </sst>
 </file>
@@ -202,9 +208,6 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -229,6 +232,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED6400A0-F631-4A2F-8972-94307038F973}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,120 +564,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="8"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="8"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
